--- a/2015-2016/clases/informatica_basica/a/evaluacion_a.xlsx
+++ b/2015-2016/clases/informatica_basica/a/evaluacion_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="449" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="449" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="practicas_laboratorio" sheetId="1" state="visible" r:id="rId2"/>
@@ -294,7 +294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -324,13 +324,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -342,13 +335,6 @@
       <right style="medium"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -395,7 +381,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -460,15 +446,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -476,27 +462,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -508,7 +486,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -519,7 +497,6 @@
         <family val="2"/>
         <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
 </styleSheet>
@@ -2968,10 +2945,10 @@
   </sheetPr>
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3073,13 +3050,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>1</v>
@@ -3107,7 +3084,7 @@
       </c>
       <c r="O5" s="9" t="n">
         <f aca="false">SUM(D5:N5)</f>
-        <v>16.6</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,8 +4527,8 @@
   </sheetPr>
   <dimension ref="C4:H37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4945,1100 +4922,1100 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.7125506072874"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2267206477733"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="43.7125506072874"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2267206477733"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.5708502024292"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+    <row r="2" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17" t="n">
+      <c r="C2" s="16" t="n">
         <f aca="false">practicas_laboratorio!G7</f>
         <v>10</v>
       </c>
-      <c r="C2" s="17" t="n">
+      <c r="D2" s="16" t="n">
         <f aca="false">pruebas_parciales!H7</f>
         <v>14.5</v>
       </c>
-      <c r="D2" s="18" t="n">
+      <c r="E2" s="17" t="n">
         <f aca="false">'informes escritos'!F7</f>
         <v>5</v>
       </c>
-      <c r="E2" s="18" t="n">
+      <c r="F2" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F7</f>
         <v>13.35</v>
       </c>
-      <c r="F2" s="19" t="n">
+      <c r="G2" s="18" t="n">
         <f aca="false">proyecto!O5</f>
-        <v>16.6</v>
-      </c>
-      <c r="G2" s="18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H2" s="17" t="n">
         <f aca="false">examen!E6</f>
         <v>28</v>
       </c>
-      <c r="H2" s="20" t="n">
-        <f aca="false">SUM(B2:G2)</f>
-        <v>87.45</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="I2" s="19" t="n">
+        <f aca="false">SUM(C2:H2)</f>
+        <v>88.35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17" t="n">
+      <c r="C3" s="16" t="n">
         <f aca="false">practicas_laboratorio!G8</f>
         <v>10</v>
       </c>
-      <c r="C3" s="17" t="n">
+      <c r="D3" s="16" t="n">
         <f aca="false">pruebas_parciales!H8</f>
         <v>14.5</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="E3" s="17" t="n">
         <f aca="false">'informes escritos'!F8</f>
         <v>5</v>
       </c>
-      <c r="E3" s="18" t="n">
+      <c r="F3" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F8</f>
         <v>13.8</v>
       </c>
-      <c r="F3" s="19" t="n">
+      <c r="G3" s="18" t="n">
         <f aca="false">proyecto!O6</f>
         <v>13.6</v>
       </c>
-      <c r="G3" s="18" t="n">
+      <c r="H3" s="17" t="n">
         <f aca="false">examen!E7</f>
         <v>24</v>
       </c>
-      <c r="H3" s="20" t="n">
-        <f aca="false">SUM(B3:G3)</f>
+      <c r="I3" s="19" t="n">
+        <f aca="false">SUM(C3:H3)</f>
         <v>80.9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="n">
+      <c r="C4" s="16" t="n">
         <f aca="false">practicas_laboratorio!G9</f>
         <v>10</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="D4" s="16" t="n">
         <f aca="false">pruebas_parciales!H9</f>
         <v>11</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="E4" s="17" t="n">
         <f aca="false">'informes escritos'!F9</f>
         <v>5</v>
       </c>
-      <c r="E4" s="18" t="n">
+      <c r="F4" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F9</f>
         <v>14.85</v>
       </c>
-      <c r="F4" s="19" t="n">
+      <c r="G4" s="18" t="n">
         <f aca="false">proyecto!O7</f>
         <v>19</v>
       </c>
-      <c r="G4" s="18" t="n">
+      <c r="H4" s="17" t="n">
         <f aca="false">examen!E8</f>
         <v>25</v>
       </c>
-      <c r="H4" s="20" t="n">
-        <f aca="false">SUM(B4:G4)</f>
+      <c r="I4" s="19" t="n">
+        <f aca="false">SUM(C4:H4)</f>
         <v>84.85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="17" t="n">
+      <c r="C5" s="16" t="n">
         <f aca="false">practicas_laboratorio!G10</f>
         <v>10</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="D5" s="16" t="n">
         <f aca="false">pruebas_parciales!H10</f>
         <v>19</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="E5" s="17" t="n">
         <f aca="false">'informes escritos'!F10</f>
         <v>5</v>
       </c>
-      <c r="E5" s="18" t="n">
+      <c r="F5" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F10</f>
         <v>13.8</v>
       </c>
-      <c r="F5" s="19" t="n">
+      <c r="G5" s="18" t="n">
         <f aca="false">proyecto!O8</f>
         <v>19.3</v>
       </c>
-      <c r="G5" s="18" t="n">
+      <c r="H5" s="17" t="n">
         <f aca="false">examen!E9</f>
         <v>27</v>
       </c>
-      <c r="H5" s="20" t="n">
-        <f aca="false">SUM(B5:G5)</f>
+      <c r="I5" s="19" t="n">
+        <f aca="false">SUM(C5:H5)</f>
         <v>94.1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="16" t="n">
         <f aca="false">practicas_laboratorio!G11</f>
         <v>10</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="D6" s="16" t="n">
         <f aca="false">pruebas_parciales!H11</f>
         <v>15</v>
       </c>
-      <c r="D6" s="18" t="n">
+      <c r="E6" s="17" t="n">
         <f aca="false">'informes escritos'!F11</f>
         <v>5</v>
       </c>
-      <c r="E6" s="18" t="n">
+      <c r="F6" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F11</f>
         <v>12.75</v>
       </c>
-      <c r="F6" s="19" t="n">
+      <c r="G6" s="18" t="n">
         <f aca="false">proyecto!O9</f>
         <v>17.8</v>
       </c>
-      <c r="G6" s="18" t="n">
+      <c r="H6" s="17" t="n">
         <f aca="false">examen!E10</f>
         <v>25</v>
       </c>
-      <c r="H6" s="20" t="n">
-        <f aca="false">SUM(B6:G6)</f>
+      <c r="I6" s="19" t="n">
+        <f aca="false">SUM(C6:H6)</f>
         <v>85.55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17" t="n">
+      <c r="C7" s="16" t="n">
         <f aca="false">practicas_laboratorio!G12</f>
         <v>10</v>
       </c>
-      <c r="C7" s="17" t="n">
+      <c r="D7" s="16" t="n">
         <f aca="false">pruebas_parciales!H12</f>
         <v>14.5</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="E7" s="17" t="n">
         <f aca="false">'informes escritos'!F12</f>
         <v>5</v>
       </c>
-      <c r="E7" s="18" t="n">
+      <c r="F7" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F12</f>
         <v>13.5</v>
       </c>
-      <c r="F7" s="19" t="n">
+      <c r="G7" s="18" t="n">
         <f aca="false">proyecto!O10</f>
         <v>18.7</v>
       </c>
-      <c r="G7" s="18" t="n">
+      <c r="H7" s="17" t="n">
         <f aca="false">examen!E11</f>
         <v>28</v>
       </c>
-      <c r="H7" s="20" t="n">
-        <f aca="false">SUM(B7:G7)</f>
+      <c r="I7" s="19" t="n">
+        <f aca="false">SUM(C7:H7)</f>
         <v>89.7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="17" t="n">
+      <c r="C8" s="16" t="n">
         <f aca="false">practicas_laboratorio!G13</f>
         <v>10</v>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="D8" s="16" t="n">
         <f aca="false">pruebas_parciales!H13</f>
         <v>14.65</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="E8" s="17" t="n">
         <f aca="false">'informes escritos'!F13</f>
         <v>5</v>
       </c>
-      <c r="E8" s="18" t="n">
+      <c r="F8" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F13</f>
         <v>13.5</v>
       </c>
-      <c r="F8" s="19" t="n">
+      <c r="G8" s="18" t="n">
         <f aca="false">proyecto!O11</f>
         <v>14</v>
       </c>
-      <c r="G8" s="18" t="n">
+      <c r="H8" s="17" t="n">
         <f aca="false">examen!E12</f>
         <v>26</v>
       </c>
-      <c r="H8" s="20" t="n">
-        <f aca="false">SUM(B8:G8)</f>
+      <c r="I8" s="19" t="n">
+        <f aca="false">SUM(C8:H8)</f>
         <v>83.15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17" t="n">
+      <c r="C9" s="16" t="n">
         <f aca="false">practicas_laboratorio!G14</f>
         <v>10</v>
       </c>
-      <c r="C9" s="17" t="n">
+      <c r="D9" s="16" t="n">
         <f aca="false">pruebas_parciales!H14</f>
         <v>16.5</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="E9" s="17" t="n">
         <f aca="false">'informes escritos'!F14</f>
         <v>5</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="F9" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F14</f>
         <v>12.75</v>
       </c>
-      <c r="F9" s="19" t="n">
+      <c r="G9" s="18" t="n">
         <f aca="false">proyecto!O12</f>
         <v>17.8</v>
       </c>
-      <c r="G9" s="18" t="n">
+      <c r="H9" s="17" t="n">
         <f aca="false">examen!E13</f>
         <v>24</v>
       </c>
-      <c r="H9" s="20" t="n">
-        <f aca="false">SUM(B9:G9)</f>
+      <c r="I9" s="19" t="n">
+        <f aca="false">SUM(C9:H9)</f>
         <v>86.05</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="17" t="n">
+      <c r="C10" s="16" t="n">
         <f aca="false">practicas_laboratorio!G15</f>
         <v>10</v>
       </c>
-      <c r="C10" s="17" t="n">
+      <c r="D10" s="16" t="n">
         <f aca="false">pruebas_parciales!H15</f>
         <v>14.375</v>
       </c>
-      <c r="D10" s="18" t="n">
+      <c r="E10" s="17" t="n">
         <f aca="false">'informes escritos'!F15</f>
         <v>5</v>
       </c>
-      <c r="E10" s="18" t="n">
+      <c r="F10" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F15</f>
         <v>13.35</v>
       </c>
-      <c r="F10" s="19" t="n">
+      <c r="G10" s="18" t="n">
         <f aca="false">proyecto!O13</f>
         <v>18.6</v>
       </c>
-      <c r="G10" s="18" t="n">
+      <c r="H10" s="17" t="n">
         <f aca="false">examen!E14</f>
         <v>28</v>
       </c>
-      <c r="H10" s="20" t="n">
-        <f aca="false">SUM(B10:G10)</f>
+      <c r="I10" s="19" t="n">
+        <f aca="false">SUM(C10:H10)</f>
         <v>89.325</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="17" t="n">
+      <c r="C11" s="16" t="n">
         <f aca="false">practicas_laboratorio!G16</f>
         <v>10</v>
       </c>
-      <c r="C11" s="17" t="n">
+      <c r="D11" s="16" t="n">
         <f aca="false">pruebas_parciales!H16</f>
         <v>16.375</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="E11" s="17" t="n">
         <f aca="false">'informes escritos'!F16</f>
         <v>5</v>
       </c>
-      <c r="E11" s="18" t="n">
+      <c r="F11" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F16</f>
         <v>13.8</v>
       </c>
-      <c r="F11" s="19" t="n">
+      <c r="G11" s="18" t="n">
         <f aca="false">proyecto!O14</f>
         <v>18.5</v>
       </c>
-      <c r="G11" s="18" t="n">
+      <c r="H11" s="17" t="n">
         <f aca="false">examen!E15</f>
         <v>21</v>
       </c>
-      <c r="H11" s="20" t="n">
-        <f aca="false">SUM(B11:G11)</f>
+      <c r="I11" s="19" t="n">
+        <f aca="false">SUM(C11:H11)</f>
         <v>84.675</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="17" t="n">
+      <c r="C12" s="16" t="n">
         <f aca="false">practicas_laboratorio!G17</f>
         <v>10</v>
       </c>
-      <c r="C12" s="17" t="n">
+      <c r="D12" s="16" t="n">
         <f aca="false">pruebas_parciales!H17</f>
         <v>14.5</v>
       </c>
-      <c r="D12" s="18" t="n">
+      <c r="E12" s="17" t="n">
         <f aca="false">'informes escritos'!F17</f>
         <v>5</v>
       </c>
-      <c r="E12" s="18" t="n">
+      <c r="F12" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F17</f>
         <v>14.85</v>
       </c>
-      <c r="F12" s="19" t="n">
+      <c r="G12" s="18" t="n">
         <f aca="false">proyecto!O15</f>
         <v>0</v>
       </c>
-      <c r="G12" s="18" t="n">
+      <c r="H12" s="17" t="n">
         <f aca="false">examen!E16</f>
         <v>26</v>
       </c>
-      <c r="H12" s="20" t="n">
-        <f aca="false">SUM(B12:G12)</f>
+      <c r="I12" s="19" t="n">
+        <f aca="false">SUM(C12:H12)</f>
         <v>70.35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="17" t="n">
+      <c r="C13" s="16" t="n">
         <f aca="false">practicas_laboratorio!G18</f>
         <v>10</v>
       </c>
-      <c r="C13" s="17" t="n">
+      <c r="D13" s="16" t="n">
         <f aca="false">pruebas_parciales!H18</f>
         <v>17.5</v>
       </c>
-      <c r="D13" s="18" t="n">
+      <c r="E13" s="17" t="n">
         <f aca="false">'informes escritos'!F18</f>
         <v>5</v>
       </c>
-      <c r="E13" s="18" t="n">
+      <c r="F13" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F18</f>
         <v>13.5</v>
       </c>
-      <c r="F13" s="19" t="n">
+      <c r="G13" s="18" t="n">
         <f aca="false">proyecto!O16</f>
         <v>18.5</v>
       </c>
-      <c r="G13" s="18" t="n">
+      <c r="H13" s="17" t="n">
         <f aca="false">examen!E17</f>
         <v>20</v>
       </c>
-      <c r="H13" s="20" t="n">
-        <f aca="false">SUM(B13:G13)</f>
+      <c r="I13" s="19" t="n">
+        <f aca="false">SUM(C13:H13)</f>
         <v>84.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="17" t="n">
+      <c r="C14" s="16" t="n">
         <f aca="false">practicas_laboratorio!G19</f>
         <v>8.33333333333333</v>
       </c>
-      <c r="C14" s="17" t="n">
+      <c r="D14" s="16" t="n">
         <f aca="false">pruebas_parciales!H19</f>
         <v>12.5</v>
       </c>
-      <c r="D14" s="18" t="n">
+      <c r="E14" s="17" t="n">
         <f aca="false">'informes escritos'!F19</f>
         <v>5</v>
       </c>
-      <c r="E14" s="18" t="n">
+      <c r="F14" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F19</f>
         <v>12.75</v>
       </c>
-      <c r="F14" s="19" t="n">
+      <c r="G14" s="18" t="n">
         <f aca="false">proyecto!O17</f>
         <v>16.6</v>
       </c>
-      <c r="G14" s="18" t="n">
+      <c r="H14" s="17" t="n">
         <f aca="false">examen!E18</f>
         <v>22</v>
       </c>
-      <c r="H14" s="20" t="n">
-        <f aca="false">SUM(B14:G14)</f>
+      <c r="I14" s="19" t="n">
+        <f aca="false">SUM(C14:H14)</f>
         <v>77.1833333333333</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="C15" s="16" t="n">
         <f aca="false">practicas_laboratorio!G20</f>
         <v>10</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="D15" s="16" t="n">
         <f aca="false">pruebas_parciales!H20</f>
         <v>17.5</v>
       </c>
-      <c r="D15" s="18" t="n">
+      <c r="E15" s="17" t="n">
         <f aca="false">'informes escritos'!F20</f>
         <v>5</v>
       </c>
-      <c r="E15" s="18" t="n">
+      <c r="F15" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F20</f>
         <v>13.35</v>
       </c>
-      <c r="F15" s="19" t="n">
+      <c r="G15" s="18" t="n">
         <f aca="false">proyecto!O18</f>
         <v>18.5</v>
       </c>
-      <c r="G15" s="18" t="n">
+      <c r="H15" s="17" t="n">
         <f aca="false">examen!E19</f>
         <v>28</v>
       </c>
-      <c r="H15" s="20" t="n">
-        <f aca="false">SUM(B15:G15)</f>
+      <c r="I15" s="19" t="n">
+        <f aca="false">SUM(C15:H15)</f>
         <v>92.35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
+      <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="17" t="n">
+      <c r="C16" s="16" t="n">
         <f aca="false">practicas_laboratorio!G21</f>
         <v>10</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="D16" s="16" t="n">
         <f aca="false">pruebas_parciales!H21</f>
         <v>16.75</v>
       </c>
-      <c r="D16" s="18" t="n">
+      <c r="E16" s="17" t="n">
         <f aca="false">'informes escritos'!F21</f>
         <v>5</v>
       </c>
-      <c r="E16" s="18" t="n">
+      <c r="F16" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F21</f>
         <v>13.8</v>
       </c>
-      <c r="F16" s="19" t="n">
+      <c r="G16" s="18" t="n">
         <f aca="false">proyecto!O19</f>
         <v>17.1</v>
       </c>
-      <c r="G16" s="18" t="n">
+      <c r="H16" s="17" t="n">
         <f aca="false">examen!E20</f>
         <v>28</v>
       </c>
-      <c r="H16" s="20" t="n">
-        <f aca="false">SUM(B16:G16)</f>
+      <c r="I16" s="19" t="n">
+        <f aca="false">SUM(C16:H16)</f>
         <v>90.65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="17" t="n">
+      <c r="C17" s="16" t="n">
         <f aca="false">practicas_laboratorio!G22</f>
         <v>10</v>
       </c>
-      <c r="C17" s="17" t="n">
+      <c r="D17" s="16" t="n">
         <f aca="false">pruebas_parciales!H22</f>
         <v>17.5</v>
       </c>
-      <c r="D17" s="18" t="n">
+      <c r="E17" s="17" t="n">
         <f aca="false">'informes escritos'!F22</f>
         <v>5</v>
       </c>
-      <c r="E17" s="18" t="n">
+      <c r="F17" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F22</f>
         <v>13.8</v>
       </c>
-      <c r="F17" s="19" t="n">
+      <c r="G17" s="18" t="n">
         <f aca="false">proyecto!O20</f>
         <v>19.1</v>
       </c>
-      <c r="G17" s="18" t="n">
+      <c r="H17" s="17" t="n">
         <f aca="false">examen!E21</f>
         <v>25</v>
       </c>
-      <c r="H17" s="20" t="n">
-        <f aca="false">SUM(B17:G17)</f>
+      <c r="I17" s="19" t="n">
+        <f aca="false">SUM(C17:H17)</f>
         <v>90.4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
+      <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="17" t="n">
+      <c r="C18" s="16" t="n">
         <f aca="false">practicas_laboratorio!G23</f>
         <v>10</v>
       </c>
-      <c r="C18" s="17" t="n">
+      <c r="D18" s="16" t="n">
         <f aca="false">pruebas_parciales!H23</f>
         <v>16.5</v>
       </c>
-      <c r="D18" s="18" t="n">
+      <c r="E18" s="17" t="n">
         <f aca="false">'informes escritos'!F23</f>
         <v>5</v>
       </c>
-      <c r="E18" s="18" t="n">
+      <c r="F18" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F23</f>
         <v>13.8</v>
       </c>
-      <c r="F18" s="19" t="n">
+      <c r="G18" s="18" t="n">
         <f aca="false">proyecto!O21</f>
         <v>18.6</v>
       </c>
-      <c r="G18" s="18" t="n">
+      <c r="H18" s="17" t="n">
         <f aca="false">examen!E22</f>
         <v>25</v>
       </c>
-      <c r="H18" s="20" t="n">
-        <f aca="false">SUM(B18:G18)</f>
+      <c r="I18" s="19" t="n">
+        <f aca="false">SUM(C18:H18)</f>
         <v>88.9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
+      <c r="B19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="17" t="n">
+      <c r="C19" s="16" t="n">
         <f aca="false">practicas_laboratorio!G24</f>
         <v>10</v>
       </c>
-      <c r="C19" s="17" t="n">
+      <c r="D19" s="16" t="n">
         <f aca="false">pruebas_parciales!H24</f>
         <v>17</v>
       </c>
-      <c r="D19" s="18" t="n">
+      <c r="E19" s="17" t="n">
         <f aca="false">'informes escritos'!F24</f>
         <v>5</v>
       </c>
-      <c r="E19" s="18" t="n">
+      <c r="F19" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F24</f>
         <v>14.85</v>
       </c>
-      <c r="F19" s="19" t="n">
+      <c r="G19" s="18" t="n">
         <f aca="false">proyecto!O22</f>
         <v>19</v>
       </c>
-      <c r="G19" s="18" t="n">
+      <c r="H19" s="17" t="n">
         <f aca="false">examen!E23</f>
         <v>25</v>
       </c>
-      <c r="H19" s="20" t="n">
-        <f aca="false">SUM(B19:G19)</f>
+      <c r="I19" s="19" t="n">
+        <f aca="false">SUM(C19:H19)</f>
         <v>90.85</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
+      <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="17" t="n">
+      <c r="C20" s="16" t="n">
         <f aca="false">practicas_laboratorio!G25</f>
         <v>10</v>
       </c>
-      <c r="C20" s="17" t="n">
+      <c r="D20" s="16" t="n">
         <f aca="false">pruebas_parciales!H25</f>
         <v>17</v>
       </c>
-      <c r="D20" s="18" t="n">
+      <c r="E20" s="17" t="n">
         <f aca="false">'informes escritos'!F25</f>
         <v>5</v>
       </c>
-      <c r="E20" s="18" t="n">
+      <c r="F20" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F25</f>
         <v>12.75</v>
       </c>
-      <c r="F20" s="19" t="n">
+      <c r="G20" s="18" t="n">
         <f aca="false">proyecto!O23</f>
         <v>14.2</v>
       </c>
-      <c r="G20" s="18" t="n">
+      <c r="H20" s="17" t="n">
         <f aca="false">examen!E24</f>
         <v>24</v>
       </c>
-      <c r="H20" s="20" t="n">
-        <f aca="false">SUM(B20:G20)</f>
+      <c r="I20" s="19" t="n">
+        <f aca="false">SUM(C20:H20)</f>
         <v>82.95</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
+      <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="17" t="n">
+      <c r="C21" s="16" t="n">
         <f aca="false">practicas_laboratorio!G26</f>
         <v>10</v>
       </c>
-      <c r="C21" s="17" t="n">
+      <c r="D21" s="16" t="n">
         <f aca="false">pruebas_parciales!H26</f>
         <v>17.15</v>
       </c>
-      <c r="D21" s="18" t="n">
+      <c r="E21" s="17" t="n">
         <f aca="false">'informes escritos'!F26</f>
         <v>5</v>
       </c>
-      <c r="E21" s="18" t="n">
+      <c r="F21" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F26</f>
         <v>13.5</v>
       </c>
-      <c r="F21" s="19" t="n">
+      <c r="G21" s="18" t="n">
         <f aca="false">proyecto!O24</f>
         <v>16.4</v>
       </c>
-      <c r="G21" s="18" t="n">
+      <c r="H21" s="17" t="n">
         <f aca="false">examen!E25</f>
         <v>28</v>
       </c>
-      <c r="H21" s="20" t="n">
-        <f aca="false">SUM(B21:G21)</f>
+      <c r="I21" s="19" t="n">
+        <f aca="false">SUM(C21:H21)</f>
         <v>90.05</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
+      <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="17" t="n">
+      <c r="C22" s="16" t="n">
         <f aca="false">practicas_laboratorio!G27</f>
         <v>10</v>
       </c>
-      <c r="C22" s="17" t="n">
+      <c r="D22" s="16" t="n">
         <f aca="false">pruebas_parciales!H27</f>
         <v>17.75</v>
       </c>
-      <c r="D22" s="18" t="n">
+      <c r="E22" s="17" t="n">
         <f aca="false">'informes escritos'!F27</f>
         <v>5</v>
       </c>
-      <c r="E22" s="18" t="n">
+      <c r="F22" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F27</f>
         <v>13.8</v>
       </c>
-      <c r="F22" s="19" t="n">
+      <c r="G22" s="18" t="n">
         <f aca="false">proyecto!O25</f>
         <v>16.3</v>
       </c>
-      <c r="G22" s="18" t="n">
+      <c r="H22" s="17" t="n">
         <f aca="false">examen!E26</f>
         <v>27</v>
       </c>
-      <c r="H22" s="20" t="n">
-        <f aca="false">SUM(B22:G22)</f>
+      <c r="I22" s="19" t="n">
+        <f aca="false">SUM(C22:H22)</f>
         <v>89.85</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
+      <c r="B23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="17" t="n">
+      <c r="C23" s="16" t="n">
         <f aca="false">practicas_laboratorio!G28</f>
         <v>10</v>
       </c>
-      <c r="C23" s="17" t="n">
+      <c r="D23" s="16" t="n">
         <f aca="false">pruebas_parciales!H28</f>
         <v>14</v>
       </c>
-      <c r="D23" s="18" t="n">
+      <c r="E23" s="17" t="n">
         <f aca="false">'informes escritos'!F28</f>
         <v>5</v>
       </c>
-      <c r="E23" s="18" t="n">
+      <c r="F23" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F28</f>
         <v>13.8</v>
       </c>
-      <c r="F23" s="19" t="n">
+      <c r="G23" s="18" t="n">
         <f aca="false">proyecto!O26</f>
         <v>17.3</v>
       </c>
-      <c r="G23" s="18" t="n">
+      <c r="H23" s="17" t="n">
         <f aca="false">examen!E27</f>
         <v>20</v>
       </c>
-      <c r="H23" s="20" t="n">
-        <f aca="false">SUM(B23:G23)</f>
+      <c r="I23" s="19" t="n">
+        <f aca="false">SUM(C23:H23)</f>
         <v>80.1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
+      <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="17" t="n">
+      <c r="C24" s="16" t="n">
         <f aca="false">practicas_laboratorio!G29</f>
         <v>10</v>
       </c>
-      <c r="C24" s="17" t="n">
+      <c r="D24" s="16" t="n">
         <f aca="false">pruebas_parciales!H29</f>
         <v>17</v>
       </c>
-      <c r="D24" s="18" t="n">
+      <c r="E24" s="17" t="n">
         <f aca="false">'informes escritos'!F29</f>
         <v>5</v>
       </c>
-      <c r="E24" s="18" t="n">
+      <c r="F24" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F29</f>
         <v>13.35</v>
       </c>
-      <c r="F24" s="19" t="n">
+      <c r="G24" s="18" t="n">
         <f aca="false">proyecto!O27</f>
         <v>18.7</v>
       </c>
-      <c r="G24" s="18" t="n">
+      <c r="H24" s="17" t="n">
         <f aca="false">examen!E28</f>
         <v>26</v>
       </c>
-      <c r="H24" s="20" t="n">
-        <f aca="false">SUM(B24:G24)</f>
+      <c r="I24" s="19" t="n">
+        <f aca="false">SUM(C24:H24)</f>
         <v>90.05</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
+      <c r="B25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="17" t="n">
+      <c r="C25" s="16" t="n">
         <f aca="false">practicas_laboratorio!G30</f>
         <v>8.33333333333333</v>
       </c>
-      <c r="C25" s="17" t="n">
+      <c r="D25" s="16" t="n">
         <f aca="false">pruebas_parciales!H30</f>
         <v>17</v>
       </c>
-      <c r="D25" s="18" t="n">
+      <c r="E25" s="17" t="n">
         <f aca="false">'informes escritos'!F30</f>
         <v>5</v>
       </c>
-      <c r="E25" s="18" t="n">
+      <c r="F25" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F30</f>
         <v>13.8</v>
       </c>
-      <c r="F25" s="19" t="n">
+      <c r="G25" s="18" t="n">
         <f aca="false">proyecto!O28</f>
         <v>13.9</v>
       </c>
-      <c r="G25" s="18" t="n">
+      <c r="H25" s="17" t="n">
         <f aca="false">examen!E29</f>
         <v>17</v>
       </c>
-      <c r="H25" s="20" t="n">
-        <f aca="false">SUM(B25:G25)</f>
+      <c r="I25" s="19" t="n">
+        <f aca="false">SUM(C25:H25)</f>
         <v>75.0333333333333</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
+      <c r="B26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="17" t="n">
+      <c r="C26" s="16" t="n">
         <f aca="false">practicas_laboratorio!G31</f>
         <v>10</v>
       </c>
-      <c r="C26" s="17" t="n">
+      <c r="D26" s="16" t="n">
         <f aca="false">pruebas_parciales!H31</f>
         <v>19</v>
       </c>
-      <c r="D26" s="18" t="n">
+      <c r="E26" s="17" t="n">
         <f aca="false">'informes escritos'!F31</f>
         <v>5</v>
       </c>
-      <c r="E26" s="18" t="n">
+      <c r="F26" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F31</f>
         <v>14.85</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="G26" s="18" t="n">
         <f aca="false">proyecto!O29</f>
         <v>18.7</v>
       </c>
-      <c r="G26" s="18" t="n">
+      <c r="H26" s="17" t="n">
         <f aca="false">examen!E30</f>
         <v>26</v>
       </c>
-      <c r="H26" s="20" t="n">
-        <f aca="false">SUM(B26:G26)</f>
+      <c r="I26" s="19" t="n">
+        <f aca="false">SUM(C26:H26)</f>
         <v>93.55</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
+      <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="17" t="n">
+      <c r="C27" s="16" t="n">
         <f aca="false">practicas_laboratorio!G32</f>
         <v>10</v>
       </c>
-      <c r="C27" s="17" t="n">
+      <c r="D27" s="16" t="n">
         <f aca="false">pruebas_parciales!H32</f>
         <v>16.45</v>
       </c>
-      <c r="D27" s="18" t="n">
+      <c r="E27" s="17" t="n">
         <f aca="false">'informes escritos'!F32</f>
         <v>5</v>
       </c>
-      <c r="E27" s="18" t="n">
+      <c r="F27" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F32</f>
         <v>13.5</v>
       </c>
-      <c r="F27" s="19" t="n">
+      <c r="G27" s="18" t="n">
         <f aca="false">proyecto!O30</f>
         <v>17.6</v>
       </c>
-      <c r="G27" s="18" t="n">
+      <c r="H27" s="17" t="n">
         <f aca="false">examen!E31</f>
         <v>20</v>
       </c>
-      <c r="H27" s="20" t="n">
-        <f aca="false">SUM(B27:G27)</f>
+      <c r="I27" s="19" t="n">
+        <f aca="false">SUM(C27:H27)</f>
         <v>82.55</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
+      <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="17" t="n">
+      <c r="C28" s="16" t="n">
         <f aca="false">practicas_laboratorio!G33</f>
         <v>10</v>
       </c>
-      <c r="C28" s="17" t="n">
+      <c r="D28" s="16" t="n">
         <f aca="false">pruebas_parciales!H33</f>
         <v>18.5</v>
       </c>
-      <c r="D28" s="18" t="n">
+      <c r="E28" s="17" t="n">
         <f aca="false">'informes escritos'!F33</f>
         <v>5</v>
       </c>
-      <c r="E28" s="18" t="n">
+      <c r="F28" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F33</f>
         <v>13.35</v>
       </c>
-      <c r="F28" s="19" t="n">
+      <c r="G28" s="18" t="n">
         <f aca="false">proyecto!O31</f>
         <v>16.9</v>
       </c>
-      <c r="G28" s="18" t="n">
+      <c r="H28" s="17" t="n">
         <f aca="false">examen!E32</f>
         <v>16</v>
       </c>
-      <c r="H28" s="20" t="n">
-        <f aca="false">SUM(B28:G28)</f>
+      <c r="I28" s="19" t="n">
+        <f aca="false">SUM(C28:H28)</f>
         <v>79.75</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="s">
+      <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="17" t="n">
+      <c r="C29" s="16" t="n">
         <f aca="false">practicas_laboratorio!G34</f>
         <v>10</v>
       </c>
-      <c r="C29" s="17" t="n">
+      <c r="D29" s="16" t="n">
         <f aca="false">pruebas_parciales!H34</f>
         <v>17.5</v>
       </c>
-      <c r="D29" s="18" t="n">
+      <c r="E29" s="17" t="n">
         <f aca="false">'informes escritos'!F34</f>
         <v>5</v>
       </c>
-      <c r="E29" s="18" t="n">
+      <c r="F29" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F34</f>
         <v>13.8</v>
       </c>
-      <c r="F29" s="19" t="n">
+      <c r="G29" s="18" t="n">
         <f aca="false">proyecto!O32</f>
         <v>15.5</v>
       </c>
-      <c r="G29" s="18" t="n">
+      <c r="H29" s="17" t="n">
         <f aca="false">examen!E33</f>
         <v>20</v>
       </c>
-      <c r="H29" s="20" t="n">
-        <f aca="false">SUM(B29:G29)</f>
+      <c r="I29" s="19" t="n">
+        <f aca="false">SUM(C29:H29)</f>
         <v>81.8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
+      <c r="B30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="17" t="n">
+      <c r="C30" s="16" t="n">
         <f aca="false">practicas_laboratorio!G35</f>
         <v>10</v>
       </c>
-      <c r="C30" s="17" t="n">
+      <c r="D30" s="16" t="n">
         <f aca="false">pruebas_parciales!H35</f>
         <v>13.7</v>
       </c>
-      <c r="D30" s="18" t="n">
+      <c r="E30" s="17" t="n">
         <f aca="false">'informes escritos'!F35</f>
         <v>5</v>
       </c>
-      <c r="E30" s="18" t="n">
+      <c r="F30" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F35</f>
         <v>14.85</v>
       </c>
-      <c r="F30" s="19" t="n">
+      <c r="G30" s="18" t="n">
         <f aca="false">proyecto!O33</f>
         <v>16.5</v>
       </c>
-      <c r="G30" s="18" t="n">
+      <c r="H30" s="17" t="n">
         <f aca="false">examen!E34</f>
         <v>26</v>
       </c>
-      <c r="H30" s="20" t="n">
-        <f aca="false">SUM(B30:G30)</f>
+      <c r="I30" s="19" t="n">
+        <f aca="false">SUM(C30:H30)</f>
         <v>86.05</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="s">
+      <c r="B31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="17" t="n">
+      <c r="C31" s="16" t="n">
         <f aca="false">practicas_laboratorio!G36</f>
         <v>10</v>
       </c>
-      <c r="C31" s="17" t="n">
+      <c r="D31" s="16" t="n">
         <f aca="false">pruebas_parciales!H36</f>
         <v>16</v>
       </c>
-      <c r="D31" s="18" t="n">
+      <c r="E31" s="17" t="n">
         <f aca="false">'informes escritos'!F36</f>
         <v>5</v>
       </c>
-      <c r="E31" s="18" t="n">
+      <c r="F31" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F36</f>
         <v>12.75</v>
       </c>
-      <c r="F31" s="19" t="n">
+      <c r="G31" s="18" t="n">
         <f aca="false">proyecto!O34</f>
         <v>15.6</v>
       </c>
-      <c r="G31" s="18" t="n">
+      <c r="H31" s="17" t="n">
         <f aca="false">examen!E35</f>
         <v>27</v>
       </c>
-      <c r="H31" s="20" t="n">
-        <f aca="false">SUM(B31:G31)</f>
+      <c r="I31" s="19" t="n">
+        <f aca="false">SUM(C31:H31)</f>
         <v>86.35</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="s">
+      <c r="B32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="17" t="n">
+      <c r="C32" s="16" t="n">
         <f aca="false">practicas_laboratorio!G37</f>
         <v>10</v>
       </c>
-      <c r="C32" s="17" t="n">
+      <c r="D32" s="16" t="n">
         <f aca="false">pruebas_parciales!H37</f>
         <v>14.125</v>
       </c>
-      <c r="D32" s="18" t="n">
+      <c r="E32" s="17" t="n">
         <f aca="false">'informes escritos'!F37</f>
         <v>5</v>
       </c>
-      <c r="E32" s="18" t="n">
+      <c r="F32" s="17" t="n">
         <f aca="false">investigacion_bibliografica!F37</f>
         <v>13.5</v>
       </c>
-      <c r="F32" s="19" t="n">
+      <c r="G32" s="18" t="n">
         <f aca="false">proyecto!O35</f>
         <v>19.7</v>
       </c>
-      <c r="G32" s="18" t="n">
+      <c r="H32" s="17" t="n">
         <f aca="false">examen!E36</f>
         <v>26</v>
       </c>
-      <c r="H32" s="20" t="n">
-        <f aca="false">SUM(B32:G32)</f>
+      <c r="I32" s="19" t="n">
+        <f aca="false">SUM(C32:H32)</f>
         <v>88.325</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="s">
+      <c r="B33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="22" t="n">
+      <c r="C33" s="20" t="n">
         <f aca="false">practicas_laboratorio!G38</f>
         <v>10</v>
       </c>
-      <c r="C33" s="22" t="n">
+      <c r="D33" s="20" t="n">
         <f aca="false">pruebas_parciales!H38</f>
         <v>14.5</v>
       </c>
-      <c r="D33" s="23" t="n">
+      <c r="E33" s="21" t="n">
         <f aca="false">'informes escritos'!F38</f>
         <v>5</v>
       </c>
-      <c r="E33" s="23" t="n">
+      <c r="F33" s="21" t="n">
         <f aca="false">investigacion_bibliografica!F38</f>
         <v>12.75</v>
       </c>
-      <c r="F33" s="24" t="n">
+      <c r="G33" s="22" t="n">
         <f aca="false">proyecto!O36</f>
         <v>18</v>
       </c>
-      <c r="G33" s="23" t="n">
+      <c r="H33" s="21" t="n">
         <f aca="false">examen!E37</f>
         <v>20</v>
       </c>
-      <c r="H33" s="25" t="n">
-        <f aca="false">SUM(B33:G33)</f>
+      <c r="I33" s="23" t="n">
+        <f aca="false">SUM(C33:H33)</f>
         <v>80.25</v>
       </c>
     </row>
